--- a/biology/Médecine/Fosse_crânienne_postérieure/Fosse_crânienne_postérieure.xlsx
+++ b/biology/Médecine/Fosse_crânienne_postérieure/Fosse_crânienne_postérieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+          <t>Fosse_crânienne_postérieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse crânienne postérieure (ou étage postérieur de la base du crâne)  est une dépression de la base interne du crâne qui contient le tronc cérébral et le cervelet
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+          <t>Fosse_crânienne_postérieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse crânienne postérieure est la plus basse des trois fosses crâniennes.
 Elle correspond au plancher occipito-temporal de la base du crâne.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+          <t>Fosse_crânienne_postérieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Foramen magnum
-Le foramen magnum est la plus grande ouverture visible dans le plancher de la fosse. Il transmet le tronc cérébral, les portions ascendantes du nerf spinal accessoire (XI) et les artères vertébrales.
-Méat acoustique interne
-Le méat acoustique interne se trouve dans la paroi antérieure de la fosse crânienne postérieure. Il permet le passage des nerfs crâniens facial (VII) et vestibulocochléaire (VIII) .
-Foramen jugulaire
-Le foramen jugulaire se situe entre le bord inférieur de l'os temporal pétreux et l'os occipital adjacent. Il permet le passage la veine jugulaire interne qui débute à cet endroit, les nerfs glossopharyngien (IX), vague (X) et accessoire (XI).
-Canal du nerf hypoglosse
-Le canal du nerf hypoglosse se trouve sur les marges antéro-latérales du foramen magnum et transmet le nerf hypoglosse (XII).
-Sinus veineux
-Des sillons sont marqués par la présence des sinus transverses droit et gauche qui se rejoignent à la confluence des sinus.
+          <t>Foramen magnum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foramen magnum est la plus grande ouverture visible dans le plancher de la fosse. Il transmet le tronc cérébral, les portions ascendantes du nerf spinal accessoire (XI) et les artères vertébrales.
 </t>
         </is>
       </c>
@@ -567,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+          <t>Fosse_crânienne_postérieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +593,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Méat acoustique interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le méat acoustique interne se trouve dans la paroi antérieure de la fosse crânienne postérieure. Il permet le passage des nerfs crâniens facial (VII) et vestibulocochléaire (VIII) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fosse_crânienne_postérieure</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Foramen jugulaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foramen jugulaire se situe entre le bord inférieur de l'os temporal pétreux et l'os occipital adjacent. Il permet le passage la veine jugulaire interne qui débute à cet endroit, les nerfs glossopharyngien (IX), vague (X) et accessoire (XI).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fosse_crânienne_postérieure</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canal du nerf hypoglosse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le canal du nerf hypoglosse se trouve sur les marges antéro-latérales du foramen magnum et transmet le nerf hypoglosse (XII).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fosse_crânienne_postérieure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Contenus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sinus veineux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des sillons sont marqués par la présence des sinus transverses droit et gauche qui se rejoignent à la confluence des sinus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fosse_crânienne_postérieure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fosse_cr%C3%A2nienne_post%C3%A9rieure</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fosse crânienne postérieure sous-développée peut provoquer la malformation Arnold-Chiari.
 </t>
